--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -509,8 +509,16 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -536,24 +544,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,24 +611,64 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -590,8 +678,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>

--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,10 +1249,14 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1st Scan, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1312,15 +1316,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1329,10 +1328,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1390,10 +1393,16 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry,
+Trainer</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1402,7 +1411,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1453,15 +1462,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1470,12 +1474,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1525,10 +1529,15 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1537,10 +1546,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1592,10 +1605,14 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1st Scan, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1604,7 +1621,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1655,10 +1672,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1667,7 +1688,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1730,14 +1751,10 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1746,7 +1763,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1802,13 +1819,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1819,7 +1835,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1862,17 +1878,26 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1917,13 +1942,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1977,21 +2001,18 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2040,7 +2061,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2050,11 +2071,7 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2103,7 +2120,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2115,7 +2132,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2166,7 +2183,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2178,7 +2195,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2906 S 20TH STREET</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2217,7 +2234,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2229,7 +2246,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
+          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2253,12 +2270,28 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2906 S 20TH STREET</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2313,21 +2346,13 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2369,24 +2394,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>BROWN DEER PARK N RIDE:
-1189 W BROWN DEER RD, RIVER HILLS, WI</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2431,14 +2443,27 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT BROWN DEER RD PARK AND RIDE</t>
+          <t>BROWN DEER PARK N RIDE:
+1189 W BROWN DEER RD, RIVER HILLS, WI</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2478,13 +2503,21 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:00 AM MEET AT BROWN DEER RD PARK AND RIDE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2525,17 +2558,13 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>4:15 AM MEET AT S RACINE CT (HWY'S 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2580,17 +2609,13 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>FESTIVAL #2766, GREEN BAY - EAST - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2631,7 +2656,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2534 STEFFENS COURT</t>
+          <t>FESTIVAL #2766, GREEN BAY - EAST - LIFO</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2639,7 +2664,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>4:15 AM MEET AT S RACINE CT (HWY'S 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2691,7 +2716,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4B2KAMxXfBH2</t>
+          <t>2534 STEFFENS COURT</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2699,7 +2724,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>PICK #353, MONROE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2734,7 +2759,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>PARTIAL RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/4B2KAMxXfBH2</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2742,7 +2767,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>246 8TH STREET</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2767,13 +2792,17 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>PARTIAL RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iAzdtqSGdcv</t>
+          <t>PICK #353, MONROE</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2801,25 +2830,16 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store,
-Wht Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>246 8TH STREET</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2851,31 +2871,28 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/iAzdtqSGdcv</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2906,37 +2923,19 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2967,27 +2966,36 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3018,27 +3026,31 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3069,31 +3081,32 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Ariel</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3120,35 +3133,27 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3188,12 +3193,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3204,17 +3209,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3251,12 +3256,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3267,19 +3272,15 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3308,12 +3309,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3324,12 +3325,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3359,12 +3360,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3375,12 +3376,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3422,12 +3423,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3438,12 +3439,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3481,12 +3482,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3497,12 +3498,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3546,12 +3547,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3562,12 +3563,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3605,12 +3606,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3621,12 +3622,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3664,12 +3665,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3680,12 +3681,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3721,13 +3722,37 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3756,13 +3781,37 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3792,20 +3841,24 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3835,19 +3888,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3885,17 +3930,13 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>MODAS- SCAN</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>DENNY'S SUPERVALU, ALGOMA - LIFO</t>
-        </is>
-      </c>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -3932,7 +3973,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3940,7 +3981,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>510 5TH ST</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3980,7 +4021,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>1775 DEMPSTER ST, SUITE T01116</t>
+          <t>MODAS- SCAN</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3988,7 +4029,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LicUiiuHyA9zibVc8</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4027,13 +4068,17 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
+          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>DENNY'S SUPERVALU, ALGOMA - LIFO</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -4070,26 +4115,18 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>RX IS LOCATED NEXT TO GIFT SHOP, ACROSS FROM PANERA BREAD</t>
+          <t>1775 DEMPSTER ST, SUITE T01116</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>510 5TH ST</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4123,24 +4160,20 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/LicUiiuHyA9zibVc8</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4173,37 +4206,17 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>RX IS LOCATED NEXT TO GIFT SHOP, ACROSS FROM PANERA BREAD</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Ariel</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4224,36 +4237,23 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>w/ Michelle @ Point Target</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4276,18 +4276,30 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4315,18 +4327,31 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4360,12 +4385,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4399,12 +4424,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -4438,12 +4463,12 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -4477,17 +4502,17 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>w/ Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4516,21 +4541,138 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>w/ Michelle @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>w/ Michelle @ Point Target</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1st Scan, work w/ Leyna</t>
+          <t>1st Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1766,7 +1766,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -2071,7 +2075,11 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2132,7 +2140,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2195,7 +2203,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2246,7 +2254,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
+          <t>2906 S 20TH STREET</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2289,7 +2297,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2906 S 20TH STREET</t>
+          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2347,11 +2355,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2397,9 +2401,21 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2451,19 +2467,15 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2508,16 +2520,8 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2615,7 +2619,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>4:15 AM MEET AT S RACINE CT (HWY'S 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2664,7 +2672,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>4:15 AM MEET AT S RACINE CT (HWY'S 43 &amp; Y)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2724,7 +2732,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2767,7 +2775,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #353, MONROE</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2802,7 +2810,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>PICK #353, MONROE</t>
+          <t>246 8TH STREET</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2837,7 +2845,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>246 8TH STREET</t>
+          <t>https://goo.gl/maps/iAzdtqSGdcv</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2887,11 +2895,7 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iAzdtqSGdcv</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2933,9 +2937,21 @@
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2983,17 +2999,17 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>2nd Scan, work w/ Leyna</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -3038,17 +3054,18 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>2nd Scan, work w/ Leyna</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3093,20 +3110,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Katelyn</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3145,15 +3157,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3209,19 +3225,15 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3272,15 +3284,19 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3325,12 +3341,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3376,12 +3392,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3439,12 +3455,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3498,12 +3514,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3563,12 +3579,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3622,12 +3638,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3681,12 +3697,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3740,12 +3756,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3799,12 +3815,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3844,21 +3860,9 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3936,7 +3940,11 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>7:30 AM START</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -3981,7 +3989,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4029,7 +4037,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DENNY'S SUPERVALU, ALGOMA - LIFO</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -4076,7 +4084,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>DENNY'S SUPERVALU, ALGOMA - LIFO</t>
+          <t>510 5TH ST</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -4123,7 +4131,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>510 5TH ST</t>
+          <t>https://goo.gl/maps/LicUiiuHyA9zibVc8</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -4168,11 +4176,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/LicUiiuHyA9zibVc8</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -4214,9 +4218,21 @@
       </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -4243,17 +4259,17 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4294,12 +4310,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4346,17 +4362,17 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -4385,17 +4401,17 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>w/ Michelle @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
@@ -4424,12 +4440,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -4463,17 +4479,17 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -4502,17 +4518,17 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>w/ Michelle @ Point Target</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4541,12 +4557,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -4580,17 +4596,17 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
@@ -4619,60 +4635,21 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>w/ Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>w/ Michelle @ Point Target</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -1238,7 +1238,8 @@
       <c r="O17" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1304,10 +1305,15 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1st Store, 
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1376,15 +1382,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1450,10 +1451,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1517,7 +1523,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1739,7 +1745,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1806,15 +1812,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until noon</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1871,9 +1872,22 @@
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until noon</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1991,11 +2005,7 @@
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -2053,7 +2063,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2116,7 +2126,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1262, MILWAUKEE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2179,7 +2189,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>3003 W GOOD HOPE RD, SUITE 1129</t>
+          <t>AURORA OUTPATIENT RX #1262, MILWAUKEE</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2230,7 +2240,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/edjcxRe5xbrZWPiw6</t>
+          <t>3003 W GOOD HOPE RD, SUITE 1129</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2275,7 +2285,11 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/edjcxRe5xbrZWPiw6</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
@@ -2334,21 +2348,9 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -2387,15 +2389,19 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -2446,12 +2452,12 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2508,8 +2514,16 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2603,11 +2617,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2656,7 +2666,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2718,7 +2728,11 @@
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2932,10 +2946,15 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2nd Festival, 
+work w/ Jerry D</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -2987,15 +3006,10 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3047,10 +3061,16 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>

--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -1192,11 +1192,7 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>

--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -1481,7 +1481,8 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Until 11:00
+Trainer</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>

--- a/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Milwaukee Schedule.xlsx
@@ -1481,8 +1481,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Until 11:00
-Trainer</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
